--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fga-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fga-Itga2b.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N2">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q2">
-        <v>1.708146674925333</v>
+        <v>0.3055554270193334</v>
       </c>
       <c r="R2">
-        <v>15.373320074328</v>
+        <v>2.749998843174</v>
       </c>
       <c r="S2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="T2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>13.868724</v>
       </c>
       <c r="O3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q3">
         <v>6.132574082296</v>
@@ -632,10 +632,10 @@
         <v>55.193166740664</v>
       </c>
       <c r="S3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="T3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N4">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q4">
-        <v>1.291451883546</v>
+        <v>0.8272206272713334</v>
       </c>
       <c r="R4">
-        <v>11.623066951914</v>
+        <v>7.444985645442001</v>
       </c>
       <c r="S4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="T4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
     </row>
   </sheetData>
